--- a/Location Details/Massachusetts Ave, Indianapolis, IN 46204_restaurants.xlsx
+++ b/Location Details/Massachusetts Ave, Indianapolis, IN 46204_restaurants.xlsx
@@ -508,7 +508,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4148</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="7">
@@ -599,12 +599,12 @@
         <v>4.6</v>
       </c>
       <c r="F7" t="n">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -647,12 +647,12 @@
         <v>4.5</v>
       </c>
       <c r="F9" t="n">
-        <v>1081</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
         <v>4.4</v>
       </c>
       <c r="F16" t="n">
-        <v>2749</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="17">
@@ -842,7 +842,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -923,22 +923,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Greek Islands</t>
+          <t>Fogo de Chão Brazilian Steakhouse</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
         <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>866</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -947,15 +947,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Hinata Japanese Fine Dining</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>Greek Islands</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
       <c r="E22" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="F22" t="n">
-        <v>46</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23">
@@ -1032,7 +1034,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1056,7 +1058,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1099,7 +1101,7 @@
         <v>4.7</v>
       </c>
       <c r="F28" t="n">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="29">
@@ -1128,7 +1130,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1147,7 +1149,7 @@
         <v>4.4</v>
       </c>
       <c r="F30" t="n">
-        <v>2255</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="31">
@@ -1176,7 +1178,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1200,7 +1202,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1224,7 +1226,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1243,12 +1245,12 @@
         <v>4.5</v>
       </c>
       <c r="F34" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1272,7 +1274,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1281,20 +1283,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nesso</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>Ocean Prime</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4</v>
+      </c>
       <c r="E36" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="F36" t="n">
-        <v>219</v>
+        <v>958</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1303,22 +1307,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Ocean Prime</t>
+          <t>Olive Garden Italian Restaurant</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="F37" t="n">
-        <v>958</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1327,7 +1331,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Olive Garden Italian Restaurant</t>
+          <t>Rusty Bucket Restaurant and Tavern</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -1337,12 +1341,12 @@
         <v>4.4</v>
       </c>
       <c r="F38" t="n">
-        <v>3333</v>
+        <v>946</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1351,22 +1355,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rusty Bucket Restaurant and Tavern</t>
+          <t>Ruth's Chris Steak House</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="F39" t="n">
-        <v>946</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1375,22 +1379,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ruth's Chris Steak House</t>
+          <t>Seasons 52</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="F40" t="n">
-        <v>969</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1399,7 +1403,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Seasons 52</t>
+          <t>Sero's Family Restaurant</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1409,12 +1413,12 @@
         <v>4.5</v>
       </c>
       <c r="F41" t="n">
-        <v>1339</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1423,22 +1427,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sero's Family Restaurant</t>
+          <t>Slapfish</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F42" t="n">
-        <v>1158</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1447,22 +1451,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Slapfish</t>
+          <t>Steer-In</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="F43" t="n">
-        <v>317</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1510,7 +1514,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1529,12 +1533,12 @@
         <v>4.6</v>
       </c>
       <c r="F46" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1558,7 +1562,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1582,7 +1586,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1606,7 +1610,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1673,12 +1677,12 @@
         <v>4.5</v>
       </c>
       <c r="F52" t="n">
-        <v>3904</v>
+        <v>3906</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1726,7 +1730,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1750,7 +1754,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
